--- a/Germany_Study_Tracker.xlsx
+++ b/Germany_Study_Tracker.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/workspace/projects/ax-new-sites/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xings\Desktop\axgithome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B29766-ABBE-B24D-881A-77F2BFC562DD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16740" xr2:uid="{D90E102D-7632-C740-BE9D-BFCBD4687A1C}"/>
+    <workbookView xWindow="345" yWindow="465" windowWidth="28095" windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="183">
   <si>
     <t>Frau</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,7 +397,7 @@
   </si>
   <si>
     <t>信任</t>
-    <rPh sb="0" eb="28">
+    <rPh sb="0" eb="2">
       <t>xin'ren</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -834,14 +834,158 @@
     <rPh sb="0" eb="1">
       <t>zhe</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>küssen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Du küsst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Er küsst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sie Küsst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wir küssen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sie küssen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ich küsse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wir küssen unsere freunde.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我亲吻着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你亲吻着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他亲吻着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她亲吻着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们亲吻着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们亲吻着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们亲吻朋友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darf ich dich küssen?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我可以亲吻你吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>käse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frucht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gemüse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gerste</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mais</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verkaufen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ich verkaufen obst auf dem markt.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Du verkaufst Gemüse auf dem Markt.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳酪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1200,39 +1344,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CEBA3D-1020-3D44-8986-CAB284D3EBB7}">
-  <dimension ref="A1:R10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="E17:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>43169</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1432,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1488,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1544,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1456,7 +1600,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1512,7 +1656,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1568,7 +1712,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1618,7 +1762,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1668,7 +1812,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -1692,6 +1836,142 @@
       </c>
       <c r="N10" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43170</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Germany_Study_Tracker.xlsx
+++ b/Germany_Study_Tracker.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xings\Desktop\axgithome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthony/workspace/projects/ax-new-sites/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E170081F-25F9-1743-975F-E9E499D34CF5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="465" windowWidth="28095" windowHeight="16740"/>
+    <workbookView minimized="1" xWindow="340" yWindow="460" windowWidth="28100" windowHeight="16700" xr2:uid="{D90E102D-7632-C740-BE9D-BFCBD4687A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>Frau</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -834,158 +835,14 @@
     <rPh sb="0" eb="1">
       <t>zhe</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>küssen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freund</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Du küsst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Er küsst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sie Küsst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wir küssen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sie küssen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ich küsse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wir küssen unsere freunde.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朋友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我亲吻着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你亲吻着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他亲吻着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>她亲吻着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们亲吻着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他们亲吻着</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们亲吻朋友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Darf ich dich küssen?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我可以亲吻你吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>käse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frucht</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gemüse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gerste</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mais</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verkaufen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Markt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ich verkaufen obst auf dem markt.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Du verkaufst Gemüse auf dem Markt.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乳酪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔬菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大麦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1344,39 +1201,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CEBA3D-1020-3D44-8986-CAB284D3EBB7}">
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="E17:G18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1">
         <v>43169</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1289,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1488,7 +1345,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1544,7 +1401,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1600,7 +1457,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1656,7 +1513,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1712,7 +1569,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1762,7 +1619,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1812,7 +1669,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -1836,142 +1693,6 @@
       </c>
       <c r="N10" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>43170</v>
-      </c>
-      <c r="C11" s="1">
-        <v>43171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C14" t="s">
-        <v>169</v>
-      </c>
-      <c r="D14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
